--- a/course/avancement.xlsx
+++ b/course/avancement.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Grille d'avancement au 12/10/2016</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -44,9 +41,6 @@
     <t>Créer des joueurs</t>
   </si>
   <si>
-    <t>fait mais pas testé</t>
-  </si>
-  <si>
     <t>Lancer une partie de Scrabble</t>
   </si>
   <si>
@@ -62,10 +56,31 @@
     <t>Logs:</t>
   </si>
   <si>
-    <t>&gt; Réflexion sur l'architecture et réalisation d'un diagramme de classe</t>
-  </si>
-  <si>
-    <t>&gt; Implémentation des classes de bases ainsi que quelques fonctionnalités</t>
+    <t>Grille d'avancement au 19/10/2016</t>
+  </si>
+  <si>
+    <t>fait et validé</t>
+  </si>
+  <si>
+    <t>&gt; Implémentation des particularités des deux jeux</t>
+  </si>
+  <si>
+    <t>&gt; Fichiers de configuration pour les pioches pour chaque jeu</t>
+  </si>
+  <si>
+    <t>&gt; Création de parties avec les joueurs, le plateau et la pioche</t>
+  </si>
+  <si>
+    <t>&gt; Sauvegarde de l'état d'une partie</t>
+  </si>
+  <si>
+    <t>Sauvegarder une partie</t>
+  </si>
+  <si>
+    <t>Ouvrir une partie en cours</t>
+  </si>
+  <si>
+    <t>fait mais non testé</t>
   </si>
 </sst>
 </file>
@@ -426,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,70 +455,96 @@
   <sheetData>
     <row r="2" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/course/avancement.xlsx
+++ b/course/avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Lancer une partie de Scrabble</t>
   </si>
   <si>
-    <t>pas commencé</t>
-  </si>
-  <si>
     <t>Lancer une partie de Topword</t>
   </si>
   <si>
@@ -56,24 +53,9 @@
     <t>Logs:</t>
   </si>
   <si>
-    <t>Grille d'avancement au 19/10/2016</t>
-  </si>
-  <si>
     <t>fait et validé</t>
   </si>
   <si>
-    <t>&gt; Implémentation des particularités des deux jeux</t>
-  </si>
-  <si>
-    <t>&gt; Fichiers de configuration pour les pioches pour chaque jeu</t>
-  </si>
-  <si>
-    <t>&gt; Création de parties avec les joueurs, le plateau et la pioche</t>
-  </si>
-  <si>
-    <t>&gt; Sauvegarde de l'état d'une partie</t>
-  </si>
-  <si>
     <t>Sauvegarder une partie</t>
   </si>
   <si>
@@ -81,6 +63,12 @@
   </si>
   <si>
     <t>fait mais non testé</t>
+  </si>
+  <si>
+    <t>&gt; Calcul des points au scrabble</t>
+  </si>
+  <si>
+    <t>Grille d'avancement au 26/10/2016</t>
   </si>
 </sst>
 </file>
@@ -441,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +443,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -471,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -479,15 +467,15 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -500,7 +488,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
@@ -508,43 +496,28 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/course/avancement.xlsx
+++ b/course/avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -35,18 +35,9 @@
     <t>Créer un sac de pioche contenant les lettres d'une partie</t>
   </si>
   <si>
-    <t>en cours</t>
-  </si>
-  <si>
     <t>Créer des joueurs</t>
   </si>
   <si>
-    <t>Lancer une partie de Scrabble</t>
-  </si>
-  <si>
-    <t>Lancer une partie de Topword</t>
-  </si>
-  <si>
     <t>Créer des plateaux de jeu</t>
   </si>
   <si>
@@ -62,13 +53,28 @@
     <t>Ouvrir une partie en cours</t>
   </si>
   <si>
-    <t>fait mais non testé</t>
-  </si>
-  <si>
-    <t>&gt; Calcul des points au scrabble</t>
-  </si>
-  <si>
-    <t>Grille d'avancement au 26/10/2016</t>
+    <t>Interaction joueur via la console</t>
+  </si>
+  <si>
+    <t>&lt; Tâches spécifiques TopWord &gt;</t>
+  </si>
+  <si>
+    <t>pas commencé</t>
+  </si>
+  <si>
+    <t>&gt; Corrections de plusieurs bugs prioritaires</t>
+  </si>
+  <si>
+    <t>&gt; Interactions joueur/console améliorée</t>
+  </si>
+  <si>
+    <t>&gt; Bilan: scrabble totalement fonctionnel et testé (sans joker)</t>
+  </si>
+  <si>
+    <t>Grille d'avancement au 17/11/2016</t>
+  </si>
+  <si>
+    <t>Pose de mot et détection des mots croisés) et calcul du score au Scrabble</t>
   </si>
 </sst>
 </file>
@@ -141,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,6 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,99 +436,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C14"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="60.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>